--- a/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/10 - FUNCIONES MATEMÁTICAS/excel_fun_mat_08.xlsx
+++ b/AGE(OPE2017)/EJERCICIOS/EXCEL 2010/00 archivos/10 - FUNCIONES MATEMÁTICAS/excel_fun_mat_08.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="21315" windowHeight="11835"/>
   </bookViews>
   <sheets>
-    <sheet name="EJERCICIO" sheetId="1" r:id="rId1"/>
+    <sheet name="2B" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -228,8 +228,8 @@
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2384948" cy="561974"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 4"/>
@@ -373,7 +373,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CuadroTexto 4"/>
